--- a/proj1/Instructions.xlsx
+++ b/proj1/Instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\研究生学习\课程资料\体系结构\proj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Arch_hw\proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F00587-175A-4C6F-A186-2AE805A00EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615143DD-3573-4569-B575-55BF9731FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>J</t>
   </si>
@@ -214,6 +214,57 @@
   </si>
   <si>
     <t>b'101011</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>if rs = rt then PC + offset</t>
+  </si>
+  <si>
+    <t>rd &lt;- rs AND rt</t>
+  </si>
+  <si>
+    <t>if rs &gt; 0 then PC + offset</t>
+  </si>
+  <si>
+    <t>if rs &lt; 0 then PC + offset</t>
+  </si>
+  <si>
+    <t>PC + offset</t>
+  </si>
+  <si>
+    <t>PC &lt;- rs</t>
+  </si>
+  <si>
+    <t>rt &lt;- mem[base + offset]</t>
+  </si>
+  <si>
+    <t>rd &lt;- rs * rt</t>
+  </si>
+  <si>
+    <t>rd &lt;- rs + st</t>
+  </si>
+  <si>
+    <t>rd &lt;- rs NOR rt</t>
+  </si>
+  <si>
+    <t>rd &lt;- (rs &lt; rt)</t>
+  </si>
+  <si>
+    <t>rd &lt;- rs - st</t>
+  </si>
+  <si>
+    <t>rd &lt;- rt &lt;&lt; sa</t>
+  </si>
+  <si>
+    <t>(logical) rd &lt;- rt &gt;&gt; sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (arithmetic) rd &lt;- rt &gt;&gt; sa</t>
+  </si>
+  <si>
+    <t>mem[base + offset] &lt;- rt</t>
   </si>
 </sst>
 </file>
@@ -243,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -329,11 +380,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -359,17 +432,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,22 +733,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -677,12 +764,14 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,19 +779,21 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -725,12 +816,14 @@
       <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -744,17 +837,19 @@
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -768,17 +863,19 @@
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -792,17 +889,19 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -810,21 +909,23 @@
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -838,17 +939,19 @@
       <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -862,17 +965,19 @@
       <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -895,12 +1000,14 @@
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -923,12 +1030,14 @@
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -951,12 +1060,14 @@
       <c r="H12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -979,12 +1090,14 @@
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -994,9 +1107,9 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1019,12 +1132,14 @@
       <c r="H15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1047,12 +1162,14 @@
       <c r="H16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1075,12 +1192,14 @@
       <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1103,12 +1222,14 @@
       <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1131,12 +1252,14 @@
       <c r="H19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1159,12 +1282,14 @@
       <c r="H20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1176,7 +1301,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1188,7 +1313,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1200,7 +1325,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1212,7 +1337,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1224,7 +1349,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1236,7 +1361,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1259,6 +1384,7 @@
     <mergeCell ref="D7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>